--- a/data/dongmanInterfaceTest.xlsx
+++ b/data/dongmanInterfaceTest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>用例描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,33 @@
   </si>
   <si>
     <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"261880","comic_id":"69608","chapter_name":"归档14M","is_end":"0","status":"2","image_num":"11","update_time":"1542189164","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":35},"page":[{"image_id":"261880_1_0","mobileImgWidth":"700","mobileImgHeight":"1129","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg","newImgWidth":"700","newImgHeight":"1129","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg"},{"image_id":"261880_1_1","mobileImgWidth":"700","mobileImgHeight":"908","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg","newImgWidth":"700","newImgHeight":"908","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg"},{"image_id":"261880_1_2","mobileImgWidth":"700","mobileImgHeight":"1498","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg","newImgWidth":"700","newImgHeight":"1498","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg"},{"image_id":"261880_2_0","mobileImgWidth":"800","mobileImgHeight":"1403","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1403","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg"},{"image_id":"261880_2_1","mobileImgWidth":"800","mobileImgHeight":"981","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"981","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg"},{"image_id":"261880_2_2","mobileImgWidth":"800","mobileImgHeight":"1616","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1616","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg"},{"image_id":"261880_3_0","mobileImgWidth":"800","mobileImgHeight":"1131","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1131","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg"},{"image_id":"261880_3_1","mobileImgWidth":"800","mobileImgHeight":"1311","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1311","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg"},{"image_id":"261880_3_2","mobileImgWidth":"800","mobileImgHeight":"891","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"891","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg"},{"image_id":"261880_3_3","mobileImgWidth":"800","mobileImgHeight":"167","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"167","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg"},{"image_id":"261880_4_0","mobileImgWidth":"800","mobileImgHeight":"1285","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1285","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg"},{"image_id":"261880_4_1","mobileImgWidth":"800","mobileImgHeight":"1565","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1565","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg"},{"image_id":"261880_4_2","mobileImgWidth":"800","mobileImgHeight":"1030","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1030","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg"},{"image_id":"261880_5_0","mobileImgWidth":"800","mobileImgHeight":"1051","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1051","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg"},{"image_id":"261880_5_1","mobileImgWidth":"800","mobileImgHeight":"1292","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1292","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg"},{"image_id":"261880_5_2","mobileImgWidth":"800","mobileImgHeight":"777","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"777","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg"},{"image_id":"261880_6_0","mobileImgWidth":"800","mobileImgHeight":"1596","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1596","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg"},{"image_id":"261880_6_1","mobileImgWidth":"800","mobileImgHeight":"850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg"},{"image_id":"261880_6_2","mobileImgWidth":"800","mobileImgHeight":"1554","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1554","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg"},{"image_id":"261880_7_0","mobileImgWidth":"800","mobileImgHeight":"1052","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1052","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg"},{"image_id":"261880_7_1","mobileImgWidth":"800","mobileImgHeight":"1603","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1603","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg"},{"image_id":"261880_7_2","mobileImgWidth":"800","mobileImgHeight":"1149","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1149","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg"},{"image_id":"261880_7_3","mobileImgWidth":"800","mobileImgHeight":"196","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"196","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg"},{"image_id":"261880_8_0","mobileImgWidth":"800","mobileImgHeight":"1350","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1350","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg"},{"image_id":"261880_8_1","mobileImgWidth":"800","mobileImgHeight":"1364","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1364","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg"},{"image_id":"261880_8_2","mobileImgWidth":"800","mobileImgHeight":"1148","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1148","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg"},{"image_id":"261880_9_0","mobileImgWidth":"800","mobileImgHeight":"1060","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1060","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg"},{"image_id":"261880_9_1","mobileImgWidth":"800","mobileImgHeight":"1250","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1250","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg"},{"image_id":"261880_9_2","mobileImgWidth":"800","mobileImgHeight":"505","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"505","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg"},{"image_id":"261880_9_3","mobileImgWidth":"800","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg"},{"image_id":"261880_10_0","mobileImgWidth":"800","mobileImgHeight":"1020","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1020","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg"},{"image_id":"261880_10_1","mobileImgWidth":"800","mobileImgHeight":"1495","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1495","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg"},{"image_id":"261880_10_2","mobileImgWidth":"800","mobileImgHeight":"1205","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1205","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg"},{"image_id":"261880_11_0","mobileImgWidth":"800","mobileImgHeight":"1287","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1287","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg"},{"image_id":"261880_11_1","mobileImgWidth":"800","mobileImgHeight":"1623","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1623","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561692082,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262393","comic_id":"69608","chapter_name":"1","is_end":"0","status":"2","image_num":"4","update_time":"1548318601","comic_chapter_like_num":"10","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":9},"page":[{"image_id":"262393_1_0","mobileImgWidth":"800","mobileImgHeight":"851","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg","newImgWidth":"800","newImgHeight":"851","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg"},{"image_id":"262393_1_1","mobileImgWidth":"800","mobileImgHeight":"2207","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg","newImgWidth":"800","newImgHeight":"2207","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg"},{"image_id":"262393_1_2","mobileImgWidth":"800","mobileImgHeight":"814","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg","newImgWidth":"800","newImgHeight":"814","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg"},{"image_id":"262393_1_3","mobileImgWidth":"800","mobileImgHeight":"794","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg","newImgWidth":"800","newImgHeight":"794","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg"},{"image_id":"262393_2_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg"},{"image_id":"262393_2_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg"},{"image_id":"262393_2_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg"},{"image_id":"1331717","mobileImgWidth":"1080","mobileImgHeight":"1543","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.jpg","newImgWidth":"1080","newImgHeight":"1543","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.jpg"},{"image_id":"1331719","mobileImgWidth":"1200","mobileImgHeight":"1453","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.jpg","newImgWidth":"1500","newImgHeight":"1817","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561693711,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262391","comic_id":"69608","chapter_name":"水晶鞋12","is_end":"0","status":"2","image_num":"12","update_time":"1553767716","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":34},"page":[{"image_id":"262391_20_0","mobileImgWidth":"1120","mobileImgHeight":"532","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"532","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg"},{"image_id":"262391_20_1","mobileImgWidth":"1120","mobileImgHeight":"732","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"732","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg"},{"image_id":"262391_20_2","mobileImgWidth":"1120","mobileImgHeight":"1029","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg","newImgWidth":"1120","newImgHeight":"1029","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg"},{"image_id":"262391_20_3","mobileImgWidth":"1120","mobileImgHeight":"1002","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg","newImgWidth":"1120","newImgHeight":"1002","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg"},{"image_id":"262391_20_4","mobileImgWidth":"1120","mobileImgHeight":"1151","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg","newImgWidth":"1120","newImgHeight":"1151","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg"},{"image_id":"262391_20_5","mobileImgWidth":"1120","mobileImgHeight":"704","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg","newImgWidth":"1120","newImgHeight":"704","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg"},{"image_id":"262391_20_6","mobileImgWidth":"1120","mobileImgHeight":"1114","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg","newImgWidth":"1120","newImgHeight":"1114","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg"},{"image_id":"262391_20_7","mobileImgWidth":"1120","mobileImgHeight":"1385","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg","newImgWidth":"1120","newImgHeight":"1385","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg"},{"image_id":"262391_20_8","mobileImgWidth":"1120","mobileImgHeight":"1717","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg","newImgWidth":"1120","newImgHeight":"1717","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg"},{"image_id":"262391_20_9","mobileImgWidth":"1120","mobileImgHeight":"1028","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg","newImgWidth":"1120","newImgHeight":"1028","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg"},{"image_id":"262391_20_10","mobileImgWidth":"1120","mobileImgHeight":"1913","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg","newImgWidth":"1120","newImgHeight":"1913","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg"},{"image_id":"262391_20_11","mobileImgWidth":"1120","mobileImgHeight":"1768","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg","newImgWidth":"1120","newImgHeight":"1768","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg"},{"image_id":"262391_20_12","mobileImgWidth":"1120","mobileImgHeight":"1925","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg","newImgWidth":"1120","newImgHeight":"1925","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg"},{"image_id":"262391_2_0","mobileImgWidth":"1200","mobileImgHeight":"1412","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1412","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg"},{"image_id":"262391_2_1","mobileImgWidth":"1200","mobileImgHeight":"1273","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1273","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg"},{"image_id":"262391_3_0","mobileImgWidth":"1200","mobileImgHeight":"1351","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1351","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg"},{"image_id":"262391_3_1","mobileImgWidth":"1200","mobileImgHeight":"1542","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1542","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg"},{"image_id":"262391_3_2","mobileImgWidth":"1200","mobileImgHeight":"442","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"442","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg"},{"image_id":"262391_4_0","mobileImgWidth":"1200","mobileImgHeight":"2071","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"2071","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg"},{"image_id":"262391_4_1","mobileImgWidth":"1200","mobileImgHeight":"780","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"780","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg"},{"image_id":"262391_5_0","mobileImgWidth":"1200","mobileImgHeight":"1816","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1816","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg"},{"image_id":"262391_5_1","mobileImgWidth":"1200","mobileImgHeight":"1211","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1211","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg"},{"image_id":"1331672","mobileImgWidth":"1200","mobileImgHeight":"2461","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.jpg","newImgWidth":"1600","newImgHeight":"3282","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.jpg"},{"image_id":"262391_8_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg"},{"image_id":"262391_8_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg"},{"image_id":"262391_8_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg"},{"image_id":"1331677","mobileImgWidth":"1200","mobileImgHeight":"2057","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.jpg","newImgWidth":"1600","newImgHeight":"2743","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.jpg"},{"image_id":"1331678","mobileImgWidth":"1200","mobileImgHeight":"3313","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.jpg","newImgWidth":"1600","newImgHeight":"4418","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.jpg"},{"image_id":"1331679","mobileImgWidth":"1200","mobileImgHeight":"1482","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.jpg","newImgWidth":"1600","newImgHeight":"1977","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.jpg"},{"image_id":"262391_14_0","mobileImgWidth":"1200","mobileImgHeight":"585","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"585","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg"},{"image_id":"262391_14_1","mobileImgWidth":"1200","mobileImgHeight":"1152","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1152","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg"},{"image_id":"262391_14_2","mobileImgWidth":"1200","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg"},{"image_id":"262391_15_0","mobileImgWidth":"1120","mobileImgHeight":"5150","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"5150","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg"},{"image_id":"262391_15_1","mobileImgWidth":"1120","mobileImgHeight":"10850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"10850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561693711,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"261880","comic_id":"69608","chapter_name":"归档14M","is_end":"0","status":"2","image_num":"11","update_time":"1542189164","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":35},"page":[{"image_id":"261880_1_0","mobileImgWidth":"700","mobileImgHeight":"1129","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg","newImgWidth":"700","newImgHeight":"1129","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg"},{"image_id":"261880_1_1","mobileImgWidth":"700","mobileImgHeight":"908","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg","newImgWidth":"700","newImgHeight":"908","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg"},{"image_id":"261880_1_2","mobileImgWidth":"700","mobileImgHeight":"1498","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg","newImgWidth":"700","newImgHeight":"1498","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg"},{"image_id":"261880_2_0","mobileImgWidth":"800","mobileImgHeight":"1403","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1403","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg"},{"image_id":"261880_2_1","mobileImgWidth":"800","mobileImgHeight":"981","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"981","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg"},{"image_id":"261880_2_2","mobileImgWidth":"800","mobileImgHeight":"1616","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1616","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg"},{"image_id":"261880_3_0","mobileImgWidth":"800","mobileImgHeight":"1131","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1131","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg"},{"image_id":"261880_3_1","mobileImgWidth":"800","mobileImgHeight":"1311","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1311","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg"},{"image_id":"261880_3_2","mobileImgWidth":"800","mobileImgHeight":"891","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"891","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg"},{"image_id":"261880_3_3","mobileImgWidth":"800","mobileImgHeight":"167","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"167","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg"},{"image_id":"261880_4_0","mobileImgWidth":"800","mobileImgHeight":"1285","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1285","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg"},{"image_id":"261880_4_1","mobileImgWidth":"800","mobileImgHeight":"1565","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1565","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg"},{"image_id":"261880_4_2","mobileImgWidth":"800","mobileImgHeight":"1030","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1030","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg"},{"image_id":"261880_5_0","mobileImgWidth":"800","mobileImgHeight":"1051","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1051","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg"},{"image_id":"261880_5_1","mobileImgWidth":"800","mobileImgHeight":"1292","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1292","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg"},{"image_id":"261880_5_2","mobileImgWidth":"800","mobileImgHeight":"777","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"777","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg"},{"image_id":"261880_6_0","mobileImgWidth":"800","mobileImgHeight":"1596","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1596","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg"},{"image_id":"261880_6_1","mobileImgWidth":"800","mobileImgHeight":"850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg"},{"image_id":"261880_6_2","mobileImgWidth":"800","mobileImgHeight":"1554","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1554","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg"},{"image_id":"261880_7_0","mobileImgWidth":"800","mobileImgHeight":"1052","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1052","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg"},{"image_id":"261880_7_1","mobileImgWidth":"800","mobileImgHeight":"1603","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1603","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg"},{"image_id":"261880_7_2","mobileImgWidth":"800","mobileImgHeight":"1149","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1149","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg"},{"image_id":"261880_7_3","mobileImgWidth":"800","mobileImgHeight":"196","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"196","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg"},{"image_id":"261880_8_0","mobileImgWidth":"800","mobileImgHeight":"1350","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1350","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg"},{"image_id":"261880_8_1","mobileImgWidth":"800","mobileImgHeight":"1364","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1364","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg"},{"image_id":"261880_8_2","mobileImgWidth":"800","mobileImgHeight":"1148","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1148","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg"},{"image_id":"261880_9_0","mobileImgWidth":"800","mobileImgHeight":"1060","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1060","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg"},{"image_id":"261880_9_1","mobileImgWidth":"800","mobileImgHeight":"1250","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1250","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg"},{"image_id":"261880_9_2","mobileImgWidth":"800","mobileImgHeight":"505","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"505","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg"},{"image_id":"261880_9_3","mobileImgWidth":"800","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg"},{"image_id":"261880_10_0","mobileImgWidth":"800","mobileImgHeight":"1020","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1020","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg"},{"image_id":"261880_10_1","mobileImgWidth":"800","mobileImgHeight":"1495","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1495","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg"},{"image_id":"261880_10_2","mobileImgWidth":"800","mobileImgHeight":"1205","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1205","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg"},{"image_id":"261880_11_0","mobileImgWidth":"800","mobileImgHeight":"1287","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1287","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg"},{"image_id":"261880_11_1","mobileImgWidth":"800","mobileImgHeight":"1623","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1623","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561693711,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262393","comic_id":"69608","chapter_name":"1","is_end":"0","status":"2","image_num":"4","update_time":"1548318601","comic_chapter_like_num":"10","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":9},"page":[{"image_id":"262393_1_0","mobileImgWidth":"800","mobileImgHeight":"851","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg","newImgWidth":"800","newImgHeight":"851","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg"},{"image_id":"262393_1_1","mobileImgWidth":"800","mobileImgHeight":"2207","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg","newImgWidth":"800","newImgHeight":"2207","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg"},{"image_id":"262393_1_2","mobileImgWidth":"800","mobileImgHeight":"814","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg","newImgWidth":"800","newImgHeight":"814","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg"},{"image_id":"262393_1_3","mobileImgWidth":"800","mobileImgHeight":"794","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg","newImgWidth":"800","newImgHeight":"794","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg"},{"image_id":"262393_2_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg"},{"image_id":"262393_2_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg"},{"image_id":"262393_2_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg"},{"image_id":"1331717","mobileImgWidth":"1080","mobileImgHeight":"1543","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.jpg","newImgWidth":"1080","newImgHeight":"1543","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.jpg"},{"image_id":"1331719","mobileImgWidth":"1200","mobileImgHeight":"1453","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.jpg","newImgWidth":"1500","newImgHeight":"1817","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695884,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262391","comic_id":"69608","chapter_name":"水晶鞋12","is_end":"0","status":"2","image_num":"12","update_time":"1553767716","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":34},"page":[{"image_id":"262391_20_0","mobileImgWidth":"1120","mobileImgHeight":"532","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"532","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg"},{"image_id":"262391_20_1","mobileImgWidth":"1120","mobileImgHeight":"732","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"732","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg"},{"image_id":"262391_20_2","mobileImgWidth":"1120","mobileImgHeight":"1029","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg","newImgWidth":"1120","newImgHeight":"1029","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg"},{"image_id":"262391_20_3","mobileImgWidth":"1120","mobileImgHeight":"1002","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg","newImgWidth":"1120","newImgHeight":"1002","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg"},{"image_id":"262391_20_4","mobileImgWidth":"1120","mobileImgHeight":"1151","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg","newImgWidth":"1120","newImgHeight":"1151","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg"},{"image_id":"262391_20_5","mobileImgWidth":"1120","mobileImgHeight":"704","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg","newImgWidth":"1120","newImgHeight":"704","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg"},{"image_id":"262391_20_6","mobileImgWidth":"1120","mobileImgHeight":"1114","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg","newImgWidth":"1120","newImgHeight":"1114","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg"},{"image_id":"262391_20_7","mobileImgWidth":"1120","mobileImgHeight":"1385","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg","newImgWidth":"1120","newImgHeight":"1385","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg"},{"image_id":"262391_20_8","mobileImgWidth":"1120","mobileImgHeight":"1717","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg","newImgWidth":"1120","newImgHeight":"1717","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg"},{"image_id":"262391_20_9","mobileImgWidth":"1120","mobileImgHeight":"1028","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg","newImgWidth":"1120","newImgHeight":"1028","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg"},{"image_id":"262391_20_10","mobileImgWidth":"1120","mobileImgHeight":"1913","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg","newImgWidth":"1120","newImgHeight":"1913","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg"},{"image_id":"262391_20_11","mobileImgWidth":"1120","mobileImgHeight":"1768","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg","newImgWidth":"1120","newImgHeight":"1768","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg"},{"image_id":"262391_20_12","mobileImgWidth":"1120","mobileImgHeight":"1925","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg","newImgWidth":"1120","newImgHeight":"1925","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg"},{"image_id":"262391_2_0","mobileImgWidth":"1200","mobileImgHeight":"1412","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1412","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg"},{"image_id":"262391_2_1","mobileImgWidth":"1200","mobileImgHeight":"1273","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1273","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg"},{"image_id":"262391_3_0","mobileImgWidth":"1200","mobileImgHeight":"1351","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1351","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg"},{"image_id":"262391_3_1","mobileImgWidth":"1200","mobileImgHeight":"1542","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1542","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg"},{"image_id":"262391_3_2","mobileImgWidth":"1200","mobileImgHeight":"442","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"442","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg"},{"image_id":"262391_4_0","mobileImgWidth":"1200","mobileImgHeight":"2071","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"2071","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg"},{"image_id":"262391_4_1","mobileImgWidth":"1200","mobileImgHeight":"780","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"780","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg"},{"image_id":"262391_5_0","mobileImgWidth":"1200","mobileImgHeight":"1816","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1816","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg"},{"image_id":"262391_5_1","mobileImgWidth":"1200","mobileImgHeight":"1211","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1211","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg"},{"image_id":"1331672","mobileImgWidth":"1200","mobileImgHeight":"2461","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.jpg","newImgWidth":"1600","newImgHeight":"3282","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.jpg"},{"image_id":"262391_8_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg"},{"image_id":"262391_8_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg"},{"image_id":"262391_8_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg"},{"image_id":"1331677","mobileImgWidth":"1200","mobileImgHeight":"2057","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.jpg","newImgWidth":"1600","newImgHeight":"2743","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.jpg"},{"image_id":"1331678","mobileImgWidth":"1200","mobileImgHeight":"3313","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.jpg","newImgWidth":"1600","newImgHeight":"4418","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.jpg"},{"image_id":"1331679","mobileImgWidth":"1200","mobileImgHeight":"1482","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.jpg","newImgWidth":"1600","newImgHeight":"1977","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.jpg"},{"image_id":"262391_14_0","mobileImgWidth":"1200","mobileImgHeight":"585","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"585","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg"},{"image_id":"262391_14_1","mobileImgWidth":"1200","mobileImgHeight":"1152","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1152","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg"},{"image_id":"262391_14_2","mobileImgWidth":"1200","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg"},{"image_id":"262391_15_0","mobileImgWidth":"1120","mobileImgHeight":"5150","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"5150","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg"},{"image_id":"262391_15_1","mobileImgWidth":"1120","mobileImgHeight":"10850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"10850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695884,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"261880","comic_id":"69608","chapter_name":"归档14M","is_end":"0","status":"2","image_num":"11","update_time":"1542189164","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":35},"page":[{"image_id":"261880_1_0","mobileImgWidth":"700","mobileImgHeight":"1129","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg","newImgWidth":"700","newImgHeight":"1129","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg"},{"image_id":"261880_1_1","mobileImgWidth":"700","mobileImgHeight":"908","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg","newImgWidth":"700","newImgHeight":"908","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg"},{"image_id":"261880_1_2","mobileImgWidth":"700","mobileImgHeight":"1498","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg","newImgWidth":"700","newImgHeight":"1498","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg"},{"image_id":"261880_2_0","mobileImgWidth":"800","mobileImgHeight":"1403","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1403","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg"},{"image_id":"261880_2_1","mobileImgWidth":"800","mobileImgHeight":"981","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"981","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg"},{"image_id":"261880_2_2","mobileImgWidth":"800","mobileImgHeight":"1616","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1616","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg"},{"image_id":"261880_3_0","mobileImgWidth":"800","mobileImgHeight":"1131","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1131","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg"},{"image_id":"261880_3_1","mobileImgWidth":"800","mobileImgHeight":"1311","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1311","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg"},{"image_id":"261880_3_2","mobileImgWidth":"800","mobileImgHeight":"891","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"891","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg"},{"image_id":"261880_3_3","mobileImgWidth":"800","mobileImgHeight":"167","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"167","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg"},{"image_id":"261880_4_0","mobileImgWidth":"800","mobileImgHeight":"1285","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1285","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg"},{"image_id":"261880_4_1","mobileImgWidth":"800","mobileImgHeight":"1565","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1565","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg"},{"image_id":"261880_4_2","mobileImgWidth":"800","mobileImgHeight":"1030","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1030","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg"},{"image_id":"261880_5_0","mobileImgWidth":"800","mobileImgHeight":"1051","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1051","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg"},{"image_id":"261880_5_1","mobileImgWidth":"800","mobileImgHeight":"1292","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1292","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg"},{"image_id":"261880_5_2","mobileImgWidth":"800","mobileImgHeight":"777","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"777","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg"},{"image_id":"261880_6_0","mobileImgWidth":"800","mobileImgHeight":"1596","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1596","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg"},{"image_id":"261880_6_1","mobileImgWidth":"800","mobileImgHeight":"850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg"},{"image_id":"261880_6_2","mobileImgWidth":"800","mobileImgHeight":"1554","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1554","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg"},{"image_id":"261880_7_0","mobileImgWidth":"800","mobileImgHeight":"1052","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1052","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg"},{"image_id":"261880_7_1","mobileImgWidth":"800","mobileImgHeight":"1603","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1603","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg"},{"image_id":"261880_7_2","mobileImgWidth":"800","mobileImgHeight":"1149","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1149","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg"},{"image_id":"261880_7_3","mobileImgWidth":"800","mobileImgHeight":"196","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"196","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg"},{"image_id":"261880_8_0","mobileImgWidth":"800","mobileImgHeight":"1350","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1350","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg"},{"image_id":"261880_8_1","mobileImgWidth":"800","mobileImgHeight":"1364","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1364","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg"},{"image_id":"261880_8_2","mobileImgWidth":"800","mobileImgHeight":"1148","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1148","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg"},{"image_id":"261880_9_0","mobileImgWidth":"800","mobileImgHeight":"1060","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1060","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg"},{"image_id":"261880_9_1","mobileImgWidth":"800","mobileImgHeight":"1250","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1250","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg"},{"image_id":"261880_9_2","mobileImgWidth":"800","mobileImgHeight":"505","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"505","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg"},{"image_id":"261880_9_3","mobileImgWidth":"800","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg"},{"image_id":"261880_10_0","mobileImgWidth":"800","mobileImgHeight":"1020","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1020","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg"},{"image_id":"261880_10_1","mobileImgWidth":"800","mobileImgHeight":"1495","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1495","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg"},{"image_id":"261880_10_2","mobileImgWidth":"800","mobileImgHeight":"1205","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1205","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg"},{"image_id":"261880_11_0","mobileImgWidth":"800","mobileImgHeight":"1287","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1287","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg"},{"image_id":"261880_11_1","mobileImgWidth":"800","mobileImgHeight":"1623","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1623","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695884,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262393","comic_id":"69608","chapter_name":"1","is_end":"0","status":"2","image_num":"4","update_time":"1548318601","comic_chapter_like_num":"10","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":9},"page":[{"image_id":"262393_1_0","mobileImgWidth":"800","mobileImgHeight":"851","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg","newImgWidth":"800","newImgHeight":"851","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_0.jpg"},{"image_id":"262393_1_1","mobileImgWidth":"800","mobileImgHeight":"2207","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg","newImgWidth":"800","newImgHeight":"2207","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_1.jpg"},{"image_id":"262393_1_2","mobileImgWidth":"800","mobileImgHeight":"814","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg","newImgWidth":"800","newImgHeight":"814","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_2.jpg"},{"image_id":"262393_1_3","mobileImgWidth":"800","mobileImgHeight":"794","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg","newImgWidth":"800","newImgHeight":"794","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/001_262393_shard_3.jpg"},{"image_id":"262393_2_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_0.jpg"},{"image_id":"262393_2_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_1.jpg"},{"image_id":"262393_2_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/002_262393_shard_2.jpg"},{"image_id":"1331717","mobileImgWidth":"1080","mobileImgHeight":"1543","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/003_262393.jpg","newImgWidth":"1080","newImgHeight":"1543","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/003_262393_big.jpg"},{"image_id":"1331719","mobileImgWidth":"1200","mobileImgHeight":"1453","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262393/005_262393.jpg","newImgWidth":"1500","newImgHeight":"1817","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262393/005_262393_big.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695948,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"262391","comic_id":"69608","chapter_name":"水晶鞋12","is_end":"0","status":"2","image_num":"12","update_time":"1553767716","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":34},"page":[{"image_id":"262391_20_0","mobileImgWidth":"1120","mobileImgHeight":"532","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"532","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_0.jpg"},{"image_id":"262391_20_1","mobileImgWidth":"1120","mobileImgHeight":"732","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"732","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_1.jpg"},{"image_id":"262391_20_2","mobileImgWidth":"1120","mobileImgHeight":"1029","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg","newImgWidth":"1120","newImgHeight":"1029","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_2.jpg"},{"image_id":"262391_20_3","mobileImgWidth":"1120","mobileImgHeight":"1002","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg","newImgWidth":"1120","newImgHeight":"1002","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_3.jpg"},{"image_id":"262391_20_4","mobileImgWidth":"1120","mobileImgHeight":"1151","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg","newImgWidth":"1120","newImgHeight":"1151","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_4.jpg"},{"image_id":"262391_20_5","mobileImgWidth":"1120","mobileImgHeight":"704","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg","newImgWidth":"1120","newImgHeight":"704","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_5.jpg"},{"image_id":"262391_20_6","mobileImgWidth":"1120","mobileImgHeight":"1114","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg","newImgWidth":"1120","newImgHeight":"1114","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_6.jpg"},{"image_id":"262391_20_7","mobileImgWidth":"1120","mobileImgHeight":"1385","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg","newImgWidth":"1120","newImgHeight":"1385","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_7.jpg"},{"image_id":"262391_20_8","mobileImgWidth":"1120","mobileImgHeight":"1717","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg","newImgWidth":"1120","newImgHeight":"1717","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_8.jpg"},{"image_id":"262391_20_9","mobileImgWidth":"1120","mobileImgHeight":"1028","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg","newImgWidth":"1120","newImgHeight":"1028","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_9.jpg"},{"image_id":"262391_20_10","mobileImgWidth":"1120","mobileImgHeight":"1913","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg","newImgWidth":"1120","newImgHeight":"1913","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_10.jpg"},{"image_id":"262391_20_11","mobileImgWidth":"1120","mobileImgHeight":"1768","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg","newImgWidth":"1120","newImgHeight":"1768","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_11.jpg"},{"image_id":"262391_20_12","mobileImgWidth":"1120","mobileImgHeight":"1925","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg","newImgWidth":"1120","newImgHeight":"1925","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/020_262391_shard_12.jpg"},{"image_id":"262391_2_0","mobileImgWidth":"1200","mobileImgHeight":"1412","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1412","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_0.jpg"},{"image_id":"262391_2_1","mobileImgWidth":"1200","mobileImgHeight":"1273","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1273","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/002_262391_shard_1.jpg"},{"image_id":"262391_3_0","mobileImgWidth":"1200","mobileImgHeight":"1351","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1351","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_0.jpg"},{"image_id":"262391_3_1","mobileImgWidth":"1200","mobileImgHeight":"1542","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1542","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_1.jpg"},{"image_id":"262391_3_2","mobileImgWidth":"1200","mobileImgHeight":"442","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"442","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/003_262391_shard_2.jpg"},{"image_id":"262391_4_0","mobileImgWidth":"1200","mobileImgHeight":"2071","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"2071","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_0.jpg"},{"image_id":"262391_4_1","mobileImgWidth":"1200","mobileImgHeight":"780","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"780","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/004_262391_shard_1.jpg"},{"image_id":"262391_5_0","mobileImgWidth":"1200","mobileImgHeight":"1816","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1816","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_0.jpg"},{"image_id":"262391_5_1","mobileImgWidth":"1200","mobileImgHeight":"1211","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1211","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/005_262391_shard_1.jpg"},{"image_id":"1331672","mobileImgWidth":"1200","mobileImgHeight":"2461","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/007_262391.jpg","newImgWidth":"1600","newImgHeight":"3282","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/007_262391_big.jpg"},{"image_id":"262391_8_0","mobileImgWidth":"1200","mobileImgHeight":"1200","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"1200","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_0.jpg"},{"image_id":"262391_8_1","mobileImgWidth":"1200","mobileImgHeight":"771","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"771","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_1.jpg"},{"image_id":"262391_8_2","mobileImgWidth":"1200","mobileImgHeight":"638","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"638","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/008_262391_shard_2.jpg"},{"image_id":"1331677","mobileImgWidth":"1200","mobileImgHeight":"2057","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/010_262391.jpg","newImgWidth":"1600","newImgHeight":"2743","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/010_262391_big.jpg"},{"image_id":"1331678","mobileImgWidth":"1200","mobileImgHeight":"3313","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/012_262391.jpg","newImgWidth":"1600","newImgHeight":"4418","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/012_262391_big.jpg"},{"image_id":"1331679","mobileImgWidth":"1200","mobileImgHeight":"1482","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/iphone/8/69608/262391/013_262391.jpg","newImgWidth":"1600","newImgHeight":"1977","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/013_262391_big.jpg"},{"image_id":"262391_14_0","mobileImgWidth":"1200","mobileImgHeight":"585","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg","newImgWidth":"1200","newImgHeight":"585","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_0.jpg"},{"image_id":"262391_14_1","mobileImgWidth":"1200","mobileImgHeight":"1152","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg","newImgWidth":"1200","newImgHeight":"1152","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_1.jpg"},{"image_id":"262391_14_2","mobileImgWidth":"1200","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg","newImgWidth":"1200","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/014_262391_shard_2.jpg"},{"image_id":"262391_15_0","mobileImgWidth":"1120","mobileImgHeight":"5150","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg","newImgWidth":"1120","newImgHeight":"5150","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_0.jpg"},{"image_id":"262391_15_1","mobileImgWidth":"1120","mobileImgHeight":"10850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg","newImgWidth":"1120","newImgHeight":"10850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/262391/015_262391_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695948,"chapter_like_list":[]}}</t>
+  </si>
+  <si>
+    <t>{"code":1,"message":"ok","data":{"chapter":{"chapter_id":"261880","comic_id":"69608","chapter_name":"归档14M","is_end":"0","status":"2","image_num":"11","update_time":"1542189164","comic_chapter_like_num":"8","charge_end_time":"0","chapter_pay_price":"0.00","chapter_pay_vcoin":0,"read_status":"1"},"comic":{"comic_id":"69608","name":"测试横版封面","description":"水电费","cover":"http://img.upload.manhua.weibo.com/cover/2019/06/05/3231377441_bhYF2O0g_s.jpg","hcover":"hcover/2019/06/05/3231377441_7dGZjYBT.jpg","status":"2","insert_bill":"0","directory_display":"1","first_chapter_id":"261869","last_chapter_id":"262393","chapter_default_price":"0.00","chapter_tryread_ids":"","comic_prefix":"","topic_id":"488","chapter_default_vcoin":0},"json_content":{"header":{"pageNum":35},"page":[{"image_id":"261880_1_0","mobileImgWidth":"700","mobileImgHeight":"1129","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg","newImgWidth":"700","newImgHeight":"1129","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_0.jpg"},{"image_id":"261880_1_1","mobileImgWidth":"700","mobileImgHeight":"908","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg","newImgWidth":"700","newImgHeight":"908","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_1.jpg"},{"image_id":"261880_1_2","mobileImgWidth":"700","mobileImgHeight":"1498","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg","newImgWidth":"700","newImgHeight":"1498","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/001_261880_shard_2.jpg"},{"image_id":"261880_2_0","mobileImgWidth":"800","mobileImgHeight":"1403","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1403","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_0.jpg"},{"image_id":"261880_2_1","mobileImgWidth":"800","mobileImgHeight":"981","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"981","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_1.jpg"},{"image_id":"261880_2_2","mobileImgWidth":"800","mobileImgHeight":"1616","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1616","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/002_261880_shard_2.jpg"},{"image_id":"261880_3_0","mobileImgWidth":"800","mobileImgHeight":"1131","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1131","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_0.jpg"},{"image_id":"261880_3_1","mobileImgWidth":"800","mobileImgHeight":"1311","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1311","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_1.jpg"},{"image_id":"261880_3_2","mobileImgWidth":"800","mobileImgHeight":"891","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"891","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_2.jpg"},{"image_id":"261880_3_3","mobileImgWidth":"800","mobileImgHeight":"167","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"167","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/003_261880_shard_3.jpg"},{"image_id":"261880_4_0","mobileImgWidth":"800","mobileImgHeight":"1285","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1285","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_0.jpg"},{"image_id":"261880_4_1","mobileImgWidth":"800","mobileImgHeight":"1565","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1565","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_1.jpg"},{"image_id":"261880_4_2","mobileImgWidth":"800","mobileImgHeight":"1030","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1030","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/004_261880_shard_2.jpg"},{"image_id":"261880_5_0","mobileImgWidth":"800","mobileImgHeight":"1051","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1051","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_0.jpg"},{"image_id":"261880_5_1","mobileImgWidth":"800","mobileImgHeight":"1292","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1292","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_1.jpg"},{"image_id":"261880_5_2","mobileImgWidth":"800","mobileImgHeight":"777","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"777","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/005_261880_shard_2.jpg"},{"image_id":"261880_6_0","mobileImgWidth":"800","mobileImgHeight":"1596","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1596","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_0.jpg"},{"image_id":"261880_6_1","mobileImgWidth":"800","mobileImgHeight":"850","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"850","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_1.jpg"},{"image_id":"261880_6_2","mobileImgWidth":"800","mobileImgHeight":"1554","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1554","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/006_261880_shard_2.jpg"},{"image_id":"261880_7_0","mobileImgWidth":"800","mobileImgHeight":"1052","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1052","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_0.jpg"},{"image_id":"261880_7_1","mobileImgWidth":"800","mobileImgHeight":"1603","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1603","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_1.jpg"},{"image_id":"261880_7_2","mobileImgWidth":"800","mobileImgHeight":"1149","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1149","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_2.jpg"},{"image_id":"261880_7_3","mobileImgWidth":"800","mobileImgHeight":"196","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"196","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/007_261880_shard_3.jpg"},{"image_id":"261880_8_0","mobileImgWidth":"800","mobileImgHeight":"1350","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1350","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_0.jpg"},{"image_id":"261880_8_1","mobileImgWidth":"800","mobileImgHeight":"1364","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1364","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_1.jpg"},{"image_id":"261880_8_2","mobileImgWidth":"800","mobileImgHeight":"1148","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1148","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/008_261880_shard_2.jpg"},{"image_id":"261880_9_0","mobileImgWidth":"800","mobileImgHeight":"1060","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1060","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_0.jpg"},{"image_id":"261880_9_1","mobileImgWidth":"800","mobileImgHeight":"1250","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1250","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_1.jpg"},{"image_id":"261880_9_2","mobileImgWidth":"800","mobileImgHeight":"505","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"505","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_2.jpg"},{"image_id":"261880_9_3","mobileImgWidth":"800","mobileImgHeight":"759","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg","newImgWidth":"800","newImgHeight":"759","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/009_261880_shard_3.jpg"},{"image_id":"261880_10_0","mobileImgWidth":"800","mobileImgHeight":"1020","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1020","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_0.jpg"},{"image_id":"261880_10_1","mobileImgWidth":"800","mobileImgHeight":"1495","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1495","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_1.jpg"},{"image_id":"261880_10_2","mobileImgWidth":"800","mobileImgHeight":"1205","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg","newImgWidth":"800","newImgHeight":"1205","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/010_261880_shard_2.jpg"},{"image_id":"261880_11_0","mobileImgWidth":"800","mobileImgHeight":"1287","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg","newImgWidth":"800","newImgHeight":"1287","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_0.jpg"},{"image_id":"261880_11_1","mobileImgWidth":"800","mobileImgHeight":"1623","mobileWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","mobileImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg","newImgWidth":"800","newImgHeight":"1623","newWebpImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.webp","newImgUrl":"http://img.upload.manhua.weibo.com/comic/8/69608/261880/011_261880_shard_1.jpg"}]},"site_image":"http://img.upload.manhua.weibo.com/","advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"document_list":{"advance_look":{"location":"advance_look","document":"本章{$day}后可免费阅读\r\n要使用{$money}抢先看吗？"},"wait_free_help":{"location":"wait_free_help","document":"1.等待即可获得1次免费阅读带有{$icon}标识的任意一个章节的机会。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。\r\n‘2.可免费阅读3天。\r\n3.使用免费机会开始阅读时起，开始进行下一个等就免费看周期的倒计时计算。"},"wait_free_time":{"location":"wait_free_time","document":"等待 {$time} 即可阅读"},"wait_free_buy":{"location":"wait_free_buy","document":"您也可以消费 {$vcoin} 墨币，立即阅读"}},"is_allow_read":{"is_chapter_read":1,"read_type":"free comic","user_id":1281,"comic":{"comic_buy":"1","pay_status":1,"pay_price":"0.00","try_read_chapters":[],"icon_type":[]},"chapter":{"chapter_buy":"1","current_chapter_price":0},"comic_order":{"order_status":0},"chapter_order":{"chapter_id_arr":[]},"user_read_code_list":[],"wait_chapter":{"wait_time":0,"chapter_list":[],"wait_days":3,"wait_status":1},"chapter_read_log_list":[]},"user":{"is_fav_comic":"no","read_history":{"user_id":1281,"comic_id":69608,"chapter_id":262391,"image_no":1,"create_source":"iphone","create_time":1553771811,"add_es_time":1553771811,"read_status":1}},"use_user_read_code":false,"chapter_list":{"262393":{"chapter_id":"262393","chapter_name":"1"},"261869":{"chapter_id":"261869","chapter_name":"萨芬的"}},"comic_cate":[],"current_time":1561695948,"chapter_like_list":[]}}</t>
   </si>
 </sst>
 </file>
@@ -706,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>24</v>
@@ -741,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>24</v>
@@ -776,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>24</v>
